--- a/xls/Cmaes_210E_Program_refactored.xlsx
+++ b/xls/Cmaes_210E_Program_refactored.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="86">
   <si>
     <t>maxEval</t>
   </si>
@@ -127,12 +127,6 @@
     <t>current_day</t>
   </si>
   <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\beats_scenarios\210E_tuesdays.xml')</t>
-  </si>
-  <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\pems_data\210E\_processed')</t>
-  </si>
-  <si>
     <t>[datenum('2014/10/14'),datenum('2014/10/21'),datenum('2014/11/18'),datenum('2014/11/25'),datenum('2014/12/16')]</t>
   </si>
   <si>
@@ -253,9 +247,6 @@
     <t>error_function.pcs_uncertainty</t>
   </si>
   <si>
-    <t>struct('CongestionPattern',[0.5],'TVH',[0.25],'KnobsDistance',[0.25],'TVM',[0])</t>
-  </si>
-  <si>
     <t>[24]</t>
   </si>
   <si>
@@ -278,6 +269,9 @@
   </si>
   <si>
     <t>is_uncertainty_for_monitored_ramps</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.5],'TVH',[0.25],'ProjPenalization',[0.25],'TVM',[0])</t>
   </si>
 </sst>
 </file>
@@ -755,11 +749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:AD70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,167 +767,179 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1013,89 +1019,89 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -1173,472 +1179,472 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="C12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="10"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="10"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="10"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
@@ -1798,167 +1804,167 @@
     </row>
     <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="X22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="12"/>
@@ -1991,79 +1997,79 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,79 +2077,79 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -2322,7 +2328,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>31</v>
@@ -2337,147 +2343,147 @@
         <v>31</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -2488,13 +2494,13 @@
         <v>11</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>11</v>
@@ -2565,79 +2571,79 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -3045,7 +3051,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>30</v>
@@ -3084,40 +3090,40 @@
         <v>30</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
@@ -3125,79 +3131,79 @@
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -3282,82 +3288,82 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -3605,79 +3611,79 @@
         <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.25">
